--- a/data/lighthouses.xlsx
+++ b/data/lighthouses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">screen_name</t>
   </si>
@@ -96,6 +96,66 @@
   </si>
   <si>
     <t xml:space="preserve">QvortrupHenrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBrgger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lykkefriis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noa_redington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMSerup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MartinCEPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akrabjohansen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonikaaRubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohammad_rona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BihlWinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GamPedersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_frydensbjerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaaretraberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThomasRohden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carolinamaier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonasholmdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MichaelHertzFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariekampmann1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBjerkrheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cihat_Bardak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JanHoby</t>
   </si>
 </sst>
 </file>
@@ -567,6 +627,106 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/lighthouses.xlsx
+++ b/data/lighthouses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">screen_name</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t xml:space="preserve">JanHoby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BjarkeCharlie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Yadvindersingh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLundNielsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnneSAndersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hannebjornk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">josephine_svane</t>
   </si>
 </sst>
 </file>
@@ -727,6 +745,36 @@
         <v>47</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/lighthouses.xlsx
+++ b/data/lighthouses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">screen_name</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">josephine_svane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHegaard</t>
   </si>
 </sst>
 </file>
@@ -775,6 +778,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/lighthouses.xlsx
+++ b/data/lighthouses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">screen_name</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t xml:space="preserve">KHegaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohansenTine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcjakobsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stinuslindgreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NikolajBjork</t>
   </si>
 </sst>
 </file>
@@ -783,6 +795,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
